--- a/Package1/GenerateDataForPredictions.xlsx
+++ b/Package1/GenerateDataForPredictions.xlsx
@@ -675,11 +675,11 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(10,1000)</f>
-        <v>214</v>
+        <v>825</v>
       </c>
       <c r="B2">
         <f ca="1">+A2+D2+(A2*G2)+I2</f>
-        <v>22828.310966392302</v>
+        <v>82813.641983263966</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -689,19 +689,19 @@
       </c>
       <c r="F2">
         <f ca="1">RAND()</f>
-        <v>0.51309722638839927</v>
+        <v>0.61982789907398128</v>
       </c>
       <c r="G2">
         <f ca="1">+E2-F2</f>
-        <v>99.486902773611604</v>
+        <v>99.380172100926018</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <f ca="1">RAND()*$J$2*H2</f>
-        <v>1324.1137728394192</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>100000</v>
@@ -710,11 +710,11 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A31" ca="1" si="0">RANDBETWEEN(10,1000)</f>
-        <v>538</v>
+        <v>312</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B31" ca="1" si="1">+A3+D3+(A3*G3)+I3</f>
-        <v>105533.86278993354</v>
+        <v>31366.63845600218</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -724,29 +724,29 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F31" ca="1" si="2">RAND()</f>
-        <v>0.21630264182546333</v>
+        <v>0.46590238460839362</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G31" ca="1" si="3">+E3-F3</f>
-        <v>99.783697358174535</v>
+        <v>99.534097615391602</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H31" ca="1" si="4">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I31" ca="1" si="5">RAND()*$J$2*H3</f>
-        <v>51312.23361123565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>905</v>
+        <v>598</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>109664.65012126506</v>
+        <v>121699.98483212099</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -756,11 +756,11 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99137433061968039</v>
+        <v>0.19154082433629205</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="3"/>
-        <v>99.008625669380322</v>
+        <v>99.808459175663714</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="4"/>
@@ -768,17 +768,17 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="5"/>
-        <v>19156.843890475873</v>
+        <v>61416.526245074085</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>713</v>
+        <v>786</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>105312.47306727925</v>
+        <v>79348.144979391393</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -788,29 +788,29 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6191377782343483E-2</v>
+        <v>4.8161603827745814E-2</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="3"/>
-        <v>99.973808622217661</v>
+        <v>99.951838396172249</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="5"/>
-        <v>33318.147519638063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>476</v>
+        <v>611</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>47788.923291402309</v>
+        <v>102629.49696991904</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -820,29 +820,29 @@
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6031023289867441</v>
+        <v>0.64985373645683453</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="3"/>
-        <v>99.396897671013249</v>
+        <v>99.350146263543166</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>41315.557602894172</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>50082.044184031874</v>
+        <v>76153.495145613429</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -852,29 +852,29 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63518199592810565</v>
+        <v>0.45584912282860046</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="3"/>
-        <v>99.364818004071893</v>
+        <v>99.544150877171404</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>32517.333664921043</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>918</v>
+        <v>398</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>108600.25793942183</v>
+        <v>74864.898513034772</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -884,11 +884,11 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7418917863743183</v>
+        <v>0.99773555929018298</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="3"/>
-        <v>99.258108213625675</v>
+        <v>99.002264440709823</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="4"/>
@@ -896,17 +896,17 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="5"/>
-        <v>16563.314599313471</v>
+        <v>35063.997265632272</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>759</v>
+        <v>403</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>95446.048445420427</v>
+        <v>40311.63900231514</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -916,29 +916,29 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16775866826347063</v>
+        <v>0.97111910095498988</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="3"/>
-        <v>99.832241331736526</v>
+        <v>99.028880899045006</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="5"/>
-        <v>18914.37727463241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>786</v>
+        <v>127</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>114767.19230170017</v>
+        <v>12789.045987627309</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -948,29 +948,29 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4430374173838372E-3</v>
+        <v>0.29885049112354822</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="3"/>
-        <v>99.990556962582616</v>
+        <v>99.701149508876455</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="5"/>
-        <v>35388.614529110229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>707</v>
+        <v>471</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>125463.0958678719</v>
+        <v>115255.98253368502</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -980,11 +980,11 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93935829835924811</v>
+        <v>0.44437064503226542</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="3"/>
-        <v>99.060641701640748</v>
+        <v>99.555629354967735</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="4"/>
@@ -992,17 +992,17 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="5"/>
-        <v>54720.222184811893</v>
+        <v>67894.281107495219</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>834</v>
+        <v>266</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>153971.89697347512</v>
+        <v>26713.760287228935</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1012,29 +1012,29 @@
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7931951458149481</v>
+        <v>0.57232974725963848</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="3"/>
-        <v>99.206804854185052</v>
+        <v>99.427670252740356</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="5"/>
-        <v>70399.421725084801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>770</v>
+        <v>233</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>77583.808892503526</v>
+        <v>23406.452172406465</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1044,11 +1044,11 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24180663311230166</v>
+        <v>0.54312372357740524</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="3"/>
-        <v>99.758193366887696</v>
+        <v>99.456876276422591</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="4"/>
@@ -1062,11 +1062,11 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>688</v>
+        <v>890</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>150888.15883030731</v>
+        <v>89506.082490103101</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1076,29 +1076,29 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80286321814168615</v>
+        <v>0.43136798864819825</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="3"/>
-        <v>99.197136781858319</v>
+        <v>99.568632011351795</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="5"/>
-        <v>81952.528724388801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>368</v>
+        <v>867</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>135463.00891100883</v>
+        <v>87122.144976201074</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1108,29 +1108,29 @@
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40450873104396345</v>
+        <v>0.51309691326287943</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="3"/>
-        <v>99.595491268956039</v>
+        <v>99.486903086737115</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="5"/>
-        <v>98443.86812403299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>269</v>
+        <v>820</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>26938.235477522216</v>
+        <v>82462.816397105184</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1140,11 +1140,11 @@
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85786067835608126</v>
+        <v>0.43558975962781865</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="3"/>
-        <v>99.142139321643924</v>
+        <v>99.564410240372183</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="4"/>
@@ -1158,11 +1158,11 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>455</v>
+        <v>501</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>131466.00100255795</v>
+        <v>85073.199460140662</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1172,11 +1172,11 @@
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57809792478904831</v>
+        <v>0.75057370999104267</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="3"/>
-        <v>99.421902075210951</v>
+        <v>99.249426290008955</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="4"/>
@@ -1184,17 +1184,17 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="5"/>
-        <v>85774.035558336967</v>
+        <v>34848.236888846186</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>332</v>
+        <v>813</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>42661.87498261626</v>
+        <v>87403.769552478159</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1204,11 +1204,11 @@
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35250905359679552</v>
+        <v>0.37492094305189982</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="3"/>
-        <v>99.647490946403209</v>
+        <v>99.625079056948096</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="4"/>
@@ -1216,17 +1216,17 @@
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="5"/>
-        <v>9246.9079884103903</v>
+        <v>5595.5802791793467</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>240</v>
+        <v>187</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>85901.253552594484</v>
+        <v>78767.531121092397</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37303937037643264</v>
+        <v>0.69255662595913281</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="3"/>
-        <v>99.626960629623568</v>
+        <v>99.307443374040872</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="4"/>
@@ -1248,17 +1248,17 @@
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="5"/>
-        <v>61750.78300148483</v>
+        <v>60010.039210146751</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>118523.50145718745</v>
+        <v>82486.812920849407</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1268,11 +1268,11 @@
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81901056214733314</v>
+        <v>0.4194680355282987</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="3"/>
-        <v>99.180989437852674</v>
+        <v>99.580531964471703</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="4"/>
@@ -1280,17 +1280,17 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="5"/>
-        <v>99990.018411184705</v>
+        <v>56939.357801873593</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>451</v>
+        <v>71</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>116252.30129600881</v>
+        <v>7124.405025499851</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1300,29 +1300,29 @@
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39880721335659974</v>
+        <v>0.65626724648096768</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="3"/>
-        <v>99.601192786643395</v>
+        <v>99.343732753519035</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="5"/>
-        <v>70881.163349232636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>161</v>
+        <v>553</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>50906.125780253977</v>
+        <v>76441.67507151977</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1332,11 +1332,11 @@
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84186459629475396</v>
+        <v>0.29488895269173776</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="3"/>
-        <v>99.158135403705245</v>
+        <v>99.705111047308264</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="4"/>
@@ -1344,17 +1344,17 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="5"/>
-        <v>34780.665980257429</v>
+        <v>20751.748662358295</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>659</v>
+        <v>467</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>133544.69068520376</v>
+        <v>47151.812459647212</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1364,29 +1364,29 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39547578692520802</v>
+        <v>3.2521499684774358E-2</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="3"/>
-        <v>99.604524213074797</v>
+        <v>99.967478500315224</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="5"/>
-        <v>67246.309228787475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>673</v>
+        <v>881</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>84827.171776582894</v>
+        <v>100292.42084949235</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1396,11 +1396,11 @@
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85084405084787185</v>
+        <v>0.17350211030833518</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="3"/>
-        <v>99.149155949152131</v>
+        <v>99.826497889691666</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="4"/>
@@ -1408,17 +1408,17 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="5"/>
-        <v>17426.789822803501</v>
+        <v>11464.276208673995</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <v>68</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>24935.84571612539</v>
+        <v>6810.4136409461062</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1428,29 +1428,29 @@
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49443505847944758</v>
+        <v>0.84685822138078726</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="3"/>
-        <v>99.505564941520547</v>
+        <v>99.153141778619215</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="5"/>
-        <v>3729.1715134645574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>393</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>105698.2391255754</v>
+        <v>1207.6088342256867</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1460,29 +1460,29 @@
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82041894098679458</v>
+        <v>0.36593048119277449</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="3"/>
-        <v>99.179581059013202</v>
+        <v>99.634069518807223</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="5"/>
-        <v>66327.663769383216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>343</v>
+        <v>978</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>47550.782243471273</v>
+        <v>183056.57032423193</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1492,11 +1492,11 @@
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33505551875435369</v>
+        <v>0.89803346350549929</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="3"/>
-        <v>99.664944481245641</v>
+        <v>99.101966536494501</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="4"/>
@@ -1504,17 +1504,17 @@
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="5"/>
-        <v>13022.706286404018</v>
+        <v>85156.847051540302</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>17567.500015915375</v>
+        <v>4737.8424176075732</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1524,11 +1524,11 @@
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61428562334070025</v>
+        <v>0.19484217856227093</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="3"/>
-        <v>99.385714376659294</v>
+        <v>99.805157821437732</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="4"/>
@@ -1542,11 +1542,11 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>940</v>
+        <v>641</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>94115.119217805302</v>
+        <v>64195.457939086715</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1556,11 +1556,11 @@
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87753274701563155</v>
+        <v>0.85107965821104192</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="3"/>
-        <v>99.122467252984364</v>
+        <v>99.148920341788951</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="4"/>
@@ -1574,11 +1574,11 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>561</v>
+        <v>406</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>56593.147846876607</v>
+        <v>40728.808869084329</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1588,11 +1588,11 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12094857954258764</v>
+        <v>0.68273677565436308</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="3"/>
-        <v>99.879051420457415</v>
+        <v>99.317263224345638</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="4"/>
@@ -1606,11 +1606,11 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>643</v>
+        <v>445</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>68844.955864313422</v>
+        <v>139627.47598671232</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1620,11 +1620,11 @@
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="2"/>
-        <v>0.73712999721146932</v>
+        <v>0.76288386211878323</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="3"/>
-        <v>99.262870002788532</v>
+        <v>99.237116137881216</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="4"/>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="5"/>
-        <v>4375.9304525204043</v>
+        <v>95021.959305355194</v>
       </c>
     </row>
   </sheetData>
@@ -1685,34 +1685,34 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(10,1000)</f>
-        <v>454</v>
+        <v>143</v>
       </c>
       <c r="B2">
         <f ca="1">+A2+D2+(A2*G2)+I2</f>
-        <v>45813.179875518341</v>
+        <v>23156.614555340071</v>
       </c>
       <c r="D2">
         <f ca="1">+E2+F2</f>
-        <v>100.31086120194628</v>
+        <v>100.5030362465573</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2">
         <f ca="1">RAND()</f>
-        <v>0.31086120194627964</v>
+        <v>0.50303624655729473</v>
       </c>
       <c r="G2">
         <f ca="1">+E2-F2</f>
-        <v>99.689138798053719</v>
+        <v>99.496963753442699</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <f ca="1">RAND()*$J$2*H2</f>
-        <v>0</v>
+        <v>8685.0457023512081</v>
       </c>
       <c r="J2">
         <v>10000</v>
@@ -1721,125 +1721,125 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A31" ca="1" si="0">RANDBETWEEN(10,1000)</f>
-        <v>491</v>
+        <v>883</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B31" ca="1" si="1">+A3+D3+(A3*G3)+I3</f>
-        <v>56308.610298419633</v>
+        <v>88916.693308689108</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D31" ca="1" si="2">+E3+F3</f>
-        <v>100.27207283490648</v>
+        <v>100.41531370896926</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F31" ca="1" si="3">RAND()</f>
-        <v>0.27207283490647949</v>
+        <v>0.41531370896926356</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G31" ca="1" si="4">+E3-F3</f>
-        <v>99.727927165093519</v>
+        <v>99.584686291030735</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H31" ca="1" si="5">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I31" ca="1" si="6">RAND()*$J$2*H3</f>
-        <v>6750.9259875238067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>483</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>56798.067173717936</v>
+        <v>4132.2298660184069</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>100.92520419839114</v>
+        <v>100.19923420465622</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92520419839114021</v>
+        <v>0.19923420465621822</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="4"/>
-        <v>99.074795801608857</v>
+        <v>99.800765795343779</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="6"/>
-        <v>8361.0155973424662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>337</v>
+        <v>556</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>33858.620483782128</v>
+        <v>61511.000108106273</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>100.82851046493414</v>
+        <v>100.63490192386945</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82851046493414726</v>
+        <v>0.63490192386945266</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="4"/>
-        <v>99.171489535065859</v>
+        <v>99.36509807613055</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5607.3706758538201</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>689</v>
+        <v>91</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>79097.98657923835</v>
+        <v>13652.994274858043</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>100.01773368435052</v>
+        <v>100.21228200088397</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7733684350519696E-2</v>
+        <v>0.21228200088396987</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="4"/>
-        <v>99.982266315649483</v>
+        <v>99.787717999116026</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="5"/>
@@ -1847,98 +1847,98 @@
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="6"/>
-        <v>9421.1873540715096</v>
+        <v>4381.0996549376014</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>558</v>
+        <v>406</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>56139.159188809812</v>
+        <v>50464.383981792394</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>100.57242515474002</v>
+        <v>100.16581067546531</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57242515474002176</v>
+        <v>0.16581067546531503</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="4"/>
-        <v>99.427574845259983</v>
+        <v>99.834189324534691</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>9425.5373053558524</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>470</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>7091.670650822839</v>
+        <v>47215.711753479212</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>100.46816759133408</v>
+        <v>100.75541203948995</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46816759133407504</v>
+        <v>0.75541203948994862</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="4"/>
-        <v>99.53183240866592</v>
+        <v>99.244587960510046</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="6"/>
-        <v>5885.3523267361797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>879</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>88163.906957442072</v>
+        <v>18274.938951856264</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>100.81445676828922</v>
+        <v>100.02827401197618</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81445676828921709</v>
+        <v>2.8274011976183511E-2</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="4"/>
-        <v>99.185543231710781</v>
+        <v>99.97172598802382</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="5"/>
@@ -1952,59 +1952,59 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>635</v>
+        <v>430</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>63776.418690209764</v>
+        <v>43326.088494959818</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>100.95600397788881</v>
+        <v>100.47531819356686</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95600397788881819</v>
+        <v>0.47531819356687033</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="4"/>
-        <v>99.043996022111187</v>
+        <v>99.524681806433136</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="6"/>
-        <v>147.52521219127402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>509</v>
+        <v>787</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>53129.828563460127</v>
+        <v>80199.388819893968</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>100.1547982352059</v>
+        <v>100.871584257471</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15479823520590175</v>
+        <v>0.87158425747100321</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="4"/>
-        <v>99.845201764794098</v>
+        <v>99.128415742529</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="5"/>
@@ -2012,65 +2012,65 @@
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="6"/>
-        <v>1699.4660669447237</v>
+        <v>1297.454046266161</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>516</v>
+        <v>277</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>51785.06611039806</v>
+        <v>35924.060108956495</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>100.83676483417852</v>
+        <v>100.4742930262326</v>
       </c>
       <c r="E12">
         <v>100</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="3"/>
-        <v>0.83676483417851943</v>
+        <v>0.47429302623259639</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="4"/>
-        <v>99.163235165821476</v>
+        <v>99.525706973767399</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7977.9649841966911</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>417</v>
+        <v>366</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>45999.900222006021</v>
+        <v>40199.892120094948</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>100.60523975541042</v>
+        <v>100.6838265675576</v>
       </c>
       <c r="E13">
         <v>100</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60523975541042463</v>
+        <v>0.68382656755759863</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="4"/>
-        <v>99.394760244589577</v>
+        <v>99.316173432442397</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="5"/>
@@ -2078,32 +2078,32 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="6"/>
-        <v>4034.6799602567639</v>
+        <v>3383.4888172534784</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>728</v>
+        <v>546</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>78298.388182955197</v>
+        <v>55205.496351766931</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>100.63713743714315</v>
+        <v>100.31585054586724</v>
       </c>
       <c r="E14">
         <v>100</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63713743714315352</v>
+        <v>0.31585054586723327</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="4"/>
-        <v>99.362862562856847</v>
+        <v>99.684149454132765</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="5"/>
@@ -2111,65 +2111,65 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="6"/>
-        <v>5133.5870997582797</v>
+        <v>131.63489926456995</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>616</v>
+        <v>281</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>66047.182121093909</v>
+        <v>28208.19834024287</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>100.45674176356434</v>
+        <v>100.97429164198975</v>
       </c>
       <c r="E15">
         <v>100</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45674176356434049</v>
+        <v>0.97429164198975149</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="4"/>
-        <v>99.543258236435662</v>
+        <v>99.025708358010249</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="6"/>
-        <v>4012.0783056859832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>851</v>
+        <v>942</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>90536.202697184548</v>
+        <v>100071.5402547358</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>100.58005151574507</v>
+        <v>100.35525727270951</v>
       </c>
       <c r="E16">
         <v>100</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58005151574506819</v>
+        <v>0.35525727270950369</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="4"/>
-        <v>99.419948484254931</v>
+        <v>99.644742727290492</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="5"/>
@@ -2177,32 +2177,32 @@
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="6"/>
-        <v>4978.2464855678545</v>
+        <v>5163.8373483554442</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>30865.539038605486</v>
+        <v>26160.030982547603</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>100.45126769973488</v>
+        <v>100.67790703988904</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45126769973488523</v>
+        <v>0.67790703988903434</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="4"/>
-        <v>99.548732300265115</v>
+        <v>99.322092960110965</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="5"/>
@@ -2210,32 +2210,32 @@
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="6"/>
-        <v>8644.3666648474264</v>
+        <v>5593.6461116450773</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>989</v>
+        <v>933</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>99912.46966988004</v>
+        <v>94058.542221438038</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>100.07745984829955</v>
+        <v>100.29448259502357</v>
       </c>
       <c r="E18">
         <v>100</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7459848299549883E-2</v>
+        <v>0.29448259502356122</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="4"/>
-        <v>99.922540151700446</v>
+        <v>99.705517404976433</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="5"/>
@@ -2249,26 +2249,26 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>495</v>
+        <v>11</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>55458.20598897335</v>
+        <v>5285.1728962493235</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>100.09832349213322</v>
+        <v>100.81936271721699</v>
       </c>
       <c r="E19">
         <v>100</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="3"/>
-        <v>9.832349213322189E-2</v>
+        <v>0.81936271721698373</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="4"/>
-        <v>99.901676507866782</v>
+        <v>99.18063728278301</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="5"/>
@@ -2276,32 +2276,32 @@
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="6"/>
-        <v>5411.7777940871601</v>
+        <v>4082.3665234214936</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>369</v>
+        <v>133</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>43637.242402205004</v>
+        <v>21789.47013278383</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>100.75105045604315</v>
+        <v>100.12497564174818</v>
       </c>
       <c r="E20">
         <v>100</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75105045604313914</v>
+        <v>0.12497564174817422</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="4"/>
-        <v>99.248949543956854</v>
+        <v>99.875024358251821</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="5"/>
@@ -2309,32 +2309,32 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="6"/>
-        <v>6544.6289700288862</v>
+        <v>8272.9669174945902</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>32260.863671420018</v>
+        <v>38447.659354424963</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>100.5509279982702</v>
+        <v>100.97155076684237</v>
       </c>
       <c r="E21">
         <v>100</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55092799827019112</v>
+        <v>0.97155076684237263</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="4"/>
-        <v>99.449072001729803</v>
+        <v>99.02844923315763</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="5"/>
@@ -2342,32 +2342,32 @@
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="6"/>
-        <v>8956.5771110221631</v>
+        <v>9438.4659752755688</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>632</v>
+        <v>590</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>63326.766322777148</v>
+        <v>59643.801437243026</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>100.95916589100293</v>
+        <v>100.0784355904193</v>
       </c>
       <c r="E22">
         <v>100</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95916589100292871</v>
+        <v>7.8435590419297374E-2</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="4"/>
-        <v>99.040834108997075</v>
+        <v>99.921564409580697</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="5"/>
@@ -2381,125 +2381,125 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>508</v>
+        <v>219</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>55337.851322416769</v>
+        <v>22070.78985190867</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>100.64615829748649</v>
+        <v>100.67986306463914</v>
       </c>
       <c r="E23">
         <v>100</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64615829748649234</v>
+        <v>0.67986306463913193</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="4"/>
-        <v>99.353841702513506</v>
+        <v>99.320136935360864</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="6"/>
-        <v>4257.4535792424176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>958</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>16256.645051607737</v>
+        <v>103925.09131212973</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>100.02110030435385</v>
+        <v>100.47820217930298</v>
       </c>
       <c r="E24">
         <v>100</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="3"/>
-        <v>2.1100304353848465E-2</v>
+        <v>0.47820217930297804</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="4"/>
-        <v>99.978899695646149</v>
+        <v>99.521797820697017</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>7524.7307977226856</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>543</v>
+        <v>983</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>54456.833665713049</v>
+        <v>98896.01219455195</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>100.89698585661799</v>
+        <v>100.76741852490001</v>
       </c>
       <c r="E25">
         <v>100</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89698585661799335</v>
+        <v>0.76741852490000906</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="4"/>
-        <v>99.103014143382012</v>
+        <v>99.232581475099991</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>266.6171860037536</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>7486.7751501294442</v>
+        <v>11529.495232942118</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>100.39947784659361</v>
+        <v>100.76875705238518</v>
       </c>
       <c r="E26">
         <v>100</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39947784659361141</v>
+        <v>0.76875705238518777</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="4"/>
-        <v>99.600522153406388</v>
+        <v>99.231242947614817</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="5"/>
@@ -2507,32 +2507,32 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="6"/>
-        <v>3462.9553083000019</v>
+        <v>9825.0265887278947</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>481</v>
+        <v>228</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>48607.990519325664</v>
+        <v>22988.982499203012</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>100.1521030847382</v>
+        <v>100.6124118977841</v>
       </c>
       <c r="E27">
         <v>100</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15210308473820167</v>
+        <v>0.61241189778409544</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="4"/>
-        <v>99.847896915261799</v>
+        <v>99.387588102215901</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="5"/>
@@ -2546,92 +2546,92 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>313</v>
+        <v>468</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>37509.868397823535</v>
+        <v>46938.828485421516</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>100.27207760241777</v>
+        <v>100.91899681922587</v>
       </c>
       <c r="E28">
         <v>100</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27207760241776591</v>
+        <v>0.91899681922586551</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="4"/>
-        <v>99.727922397582233</v>
+        <v>99.081003180774132</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="6"/>
-        <v>5881.7566097778763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>382</v>
+        <v>964</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>44444.645072810294</v>
+        <v>97445.219363091237</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>100.53708186699271</v>
+        <v>100.01950221901222</v>
       </c>
       <c r="E29">
         <v>100</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53708186699271376</v>
+        <v>1.9502219012225819E-2</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="4"/>
-        <v>99.462918133007292</v>
+        <v>99.980497780987776</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="6"/>
-        <v>5967.2732641345128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>629</v>
+        <v>858</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>63578.996683405669</v>
+        <v>86750.43614768915</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>100.07962311559608</v>
+        <v>100.00882596535689</v>
       </c>
       <c r="E30">
         <v>100</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="3"/>
-        <v>7.9623115596082261E-2</v>
+        <v>8.8259653568980578E-3</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="4"/>
-        <v>99.920376884403922</v>
+        <v>99.991174034643109</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="5"/>
@@ -2645,34 +2645,34 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>481</v>
+        <v>784</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>48639.755743694346</v>
+        <v>78608.874849165542</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>100.08592553397011</v>
+        <v>100.95459961536913</v>
       </c>
       <c r="E31">
         <v>100</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="3"/>
-        <v>8.5925533970115153E-2</v>
+        <v>0.95459961536913118</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="4"/>
-        <v>99.914074466029888</v>
+        <v>99.045400384630867</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>72.326347999570601</v>
       </c>
     </row>
   </sheetData>
@@ -2770,34 +2770,34 @@
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(10,1000)</f>
-        <v>663</v>
+        <v>348</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,527)</f>
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D2">
         <f ca="1">F2+(A2*I2)+(B2*O2)+(C2*U2)</f>
-        <v>746244.44370201952</v>
+        <v>18853038.817541163</v>
       </c>
       <c r="F2" s="17">
         <f ca="1">+$G$2+$H2</f>
-        <v>1000.8013972124005</v>
+        <v>1000.4206711503592</v>
       </c>
       <c r="G2" s="8">
         <v>1000</v>
       </c>
       <c r="H2" s="9">
         <f ca="1">RAND()</f>
-        <v>0.80139721240047412</v>
+        <v>0.4206711503592182</v>
       </c>
       <c r="I2" s="15">
         <f ca="1">+$G$2-H2+K2</f>
-        <v>999.1986027875995</v>
+        <v>999.57932884964077</v>
       </c>
       <c r="J2" s="9">
         <v>0</v>
@@ -2814,11 +2814,11 @@
       </c>
       <c r="N2" s="9">
         <f ca="1">RAND()</f>
-        <v>0.67450159992301473</v>
+        <v>0.88604898343145955</v>
       </c>
       <c r="O2" s="15">
         <f ca="1">+$M$2-N2+Q2</f>
-        <v>2400.4252438033222</v>
+        <v>40743.023603185589</v>
       </c>
       <c r="P2" s="9">
         <f ca="1">RANDBETWEEN(0,1)</f>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="Q2" s="9">
         <f ca="1">RAND()*$L$2*P2</f>
-        <v>2301.0997454032454</v>
+        <v>40643.909652169023</v>
       </c>
       <c r="R2" s="19">
         <v>100000</v>
@@ -2836,19 +2836,19 @@
       </c>
       <c r="T2" s="9">
         <f ca="1">RAND()</f>
-        <v>0.34989497658382651</v>
+        <v>0.49002638077993943</v>
       </c>
       <c r="U2" s="15">
         <f ca="1">+$S$2-T2+W2</f>
-        <v>99.650105023416174</v>
+        <v>49467.591992811249</v>
       </c>
       <c r="V2" s="9">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W2" s="9">
         <f ca="1">RAND()*$L$2*V2</f>
-        <v>0</v>
+        <v>49368.082019192028</v>
       </c>
       <c r="X2" s="18">
         <v>100000</v>
@@ -2857,32 +2857,32 @@
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A31" ca="1" si="0">RANDBETWEEN(10,1000)</f>
-        <v>577</v>
+        <v>788</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B31" ca="1" si="1">RANDBETWEEN(10,100)</f>
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C31" ca="1" si="2">RANDBETWEEN(1,527)</f>
-        <v>218</v>
+        <v>471</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D31" ca="1" si="3">+A3+F3+(A3*I3)+K3</f>
-        <v>578317.99487495911</v>
+        <v>789210.28935639316</v>
       </c>
       <c r="F3" s="17">
         <f t="shared" ref="F3:F31" ca="1" si="4">+$G$2+$H3</f>
-        <v>1000.4496616754182</v>
+        <v>1000.7340668914953</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="9">
         <f t="shared" ref="H3:H31" ca="1" si="5">RAND()</f>
-        <v>0.44966167541813151</v>
+        <v>0.73406689149533488</v>
       </c>
       <c r="I3" s="15">
         <f t="shared" ref="I3:I31" ca="1" si="6">+$G$2-H3+K3</f>
-        <v>999.55033832458184</v>
+        <v>999.26593310850467</v>
       </c>
       <c r="J3" s="9">
         <v>0</v>
@@ -2895,11 +2895,11 @@
       <c r="M3" s="8"/>
       <c r="N3" s="9">
         <f t="shared" ref="N3:N31" ca="1" si="8">RAND()</f>
-        <v>0.48451183091506045</v>
+        <v>0.30337674483229138</v>
       </c>
       <c r="O3" s="15">
         <f t="shared" ref="O3:O31" ca="1" si="9">+$G$2-N3+Q3</f>
-        <v>1146.0494104486752</v>
+        <v>22110.922697638784</v>
       </c>
       <c r="P3" s="9">
         <f t="shared" ref="P3:P31" ca="1" si="10">RANDBETWEEN(0,1)</f>
@@ -2907,57 +2907,57 @@
       </c>
       <c r="Q3" s="9">
         <f t="shared" ref="Q3:Q31" ca="1" si="11">RAND()*$L$2*P3</f>
-        <v>146.53392227959029</v>
+        <v>21111.226074383616</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="8"/>
       <c r="T3" s="9">
         <f t="shared" ref="T3:T31" ca="1" si="12">RAND()</f>
-        <v>0.37689777997427243</v>
+        <v>0.34585950546641619</v>
       </c>
       <c r="U3" s="15">
         <f t="shared" ref="U3:U31" ca="1" si="13">+$G$2-T3+W3</f>
-        <v>97297.442772410184</v>
+        <v>999.65414049453364</v>
       </c>
       <c r="V3" s="9">
         <f t="shared" ref="V3:V31" ca="1" si="14">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="9">
         <f t="shared" ref="W3:W31" ca="1" si="15">RAND()*$L$2*V3</f>
-        <v>96297.819670190162</v>
+        <v>0</v>
       </c>
       <c r="X3" s="10"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>701</v>
+        <v>795</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>702396.27143501502</v>
+        <v>796441.48421254696</v>
       </c>
       <c r="F4" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.4353265214071</v>
+        <v>1000.4452339892356</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43532652140710548</v>
+        <v>0.44523398923556634</v>
       </c>
       <c r="I4" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.56467347859291</v>
+        <v>999.55476601076441</v>
       </c>
       <c r="J4" s="9">
         <v>0</v>
@@ -2970,11 +2970,11 @@
       <c r="M4" s="8"/>
       <c r="N4" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.85074910793000436</v>
+        <v>0.19228930913943365</v>
       </c>
       <c r="O4" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.14925089206997</v>
+        <v>999.80771069086052</v>
       </c>
       <c r="P4" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -2988,51 +2988,51 @@
       <c r="S4" s="8"/>
       <c r="T4" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.81386097217913766</v>
+        <v>0.39661400664301683</v>
       </c>
       <c r="U4" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>999.1861390278209</v>
+        <v>20642.281963486646</v>
       </c>
       <c r="V4" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>19642.678577493291</v>
       </c>
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>816</v>
+        <v>454</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>817566.88814507145</v>
+        <v>455010.78811339842</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.3056587177037</v>
+        <v>1000.9783926856547</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30565871770370867</v>
+        <v>0.97839268565469772</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.69434128229625</v>
+        <v>999.02160731434526</v>
       </c>
       <c r="J5" s="9">
         <v>0</v>
@@ -3045,11 +3045,11 @@
       <c r="M5" s="8"/>
       <c r="N5" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.91140269822277298</v>
+        <v>1.5232088349233619E-2</v>
       </c>
       <c r="O5" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>27553.846068800489</v>
+        <v>94355.659060063248</v>
       </c>
       <c r="P5" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -3057,57 +3057,57 @@
       </c>
       <c r="Q5" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>26554.757471498713</v>
+        <v>93355.674292151598</v>
       </c>
       <c r="R5" s="9"/>
       <c r="S5" s="8"/>
       <c r="T5" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>6.9332458498659877E-2</v>
+        <v>0.91674994141627553</v>
       </c>
       <c r="U5" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>96897.201320097127</v>
+        <v>999.08325005858376</v>
       </c>
       <c r="V5" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>95897.270652555628</v>
+        <v>0</v>
       </c>
       <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>12007.084470360352</v>
+        <v>379176.71540575218</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.3915529639647</v>
+        <v>1000.5339113905778</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39155296396475769</v>
+        <v>0.53391139057787429</v>
       </c>
       <c r="I6" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.60844703603527</v>
+        <v>999.46608860942217</v>
       </c>
       <c r="J6" s="9">
         <v>0</v>
@@ -3120,11 +3120,11 @@
       <c r="M6" s="8"/>
       <c r="N6" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.2740921886712121</v>
+        <v>4.88474902108047E-2</v>
       </c>
       <c r="O6" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.72590781132874</v>
+        <v>999.95115250978915</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -3138,51 +3138,51 @@
       <c r="S6" s="8"/>
       <c r="T6" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.43421055764796757</v>
+        <v>0.39179621846359292</v>
       </c>
       <c r="U6" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>9044.9205201215082</v>
+        <v>999.60820378153642</v>
       </c>
       <c r="V6" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>8045.3547306791552</v>
+        <v>0</v>
       </c>
       <c r="X6" s="10"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>376</v>
+        <v>472</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>910466.95948142873</v>
+        <v>888129.9350423963</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.4868287649463</v>
+        <v>1000.8544751214489</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48682876494623584</v>
+        <v>0.85447512144886217</v>
       </c>
       <c r="I7" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.51317123505373</v>
+        <v>999.1455248785511</v>
       </c>
       <c r="J7" s="9">
         <v>0</v>
@@ -3195,29 +3195,29 @@
       <c r="M7" s="8"/>
       <c r="N7" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.4628918997003667</v>
+        <v>0.73212644190660658</v>
       </c>
       <c r="O7" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>49196.328748741878</v>
+        <v>999.26787355809336</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>48196.791640641575</v>
+        <v>0</v>
       </c>
       <c r="R7" s="9"/>
       <c r="S7" s="8"/>
       <c r="T7" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.46469242219821638</v>
+        <v>0.74343190186643449</v>
       </c>
       <c r="U7" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>60705.956099883406</v>
+        <v>8729.6367678400384</v>
       </c>
       <c r="V7" s="9">
         <f t="shared" ca="1" si="14"/>
@@ -3225,39 +3225,39 @@
       </c>
       <c r="W7" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>59706.420792305602</v>
+        <v>7730.3801997419041</v>
       </c>
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>304</v>
+        <v>385</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>288</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>305153.87107901828</v>
+        <v>386255.98384001391</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.4954749867384</v>
+        <v>1000.3359795832971</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49547498673835721</v>
+        <v>0.33597958329705657</v>
       </c>
       <c r="I8" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.50452501326163</v>
+        <v>999.6640204167029</v>
       </c>
       <c r="J8" s="9">
         <v>0</v>
@@ -3270,11 +3270,11 @@
       <c r="M8" s="8"/>
       <c r="N8" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.40529017644776877</v>
+        <v>0.92908734309425711</v>
       </c>
       <c r="O8" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.59470982355219</v>
+        <v>999.07091265690576</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -3288,11 +3288,11 @@
       <c r="S8" s="8"/>
       <c r="T8" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.73198414990698213</v>
+        <v>0.25735899236512405</v>
       </c>
       <c r="U8" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>1880.1425136319845</v>
+        <v>12264.166223617307</v>
       </c>
       <c r="V8" s="9">
         <f t="shared" ca="1" si="14"/>
@@ -3300,39 +3300,39 @@
       </c>
       <c r="W8" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>880.87449778189159</v>
+        <v>11264.423582609672</v>
       </c>
       <c r="X8" s="10"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>369</v>
+        <v>597</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>370110.97856731509</v>
+        <v>598139.36781594204</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.7011451975134</v>
+        <v>1000.7678392349966</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70114519751334248</v>
+        <v>0.76783923499657691</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.29885480248663</v>
+        <v>999.23216076500341</v>
       </c>
       <c r="J9" s="9">
         <v>0</v>
@@ -3345,69 +3345,69 @@
       <c r="M9" s="8"/>
       <c r="N9" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.63840850874217259</v>
+        <v>0.24496116255063971</v>
       </c>
       <c r="O9" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>33822.574838375571</v>
+        <v>999.75503883744932</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>32823.213246884312</v>
+        <v>0</v>
       </c>
       <c r="R9" s="9"/>
       <c r="S9" s="8"/>
       <c r="T9" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.69399754074640085</v>
+        <v>0.82855791320989847</v>
       </c>
       <c r="U9" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>29151.364807636612</v>
+        <v>999.17144208679008</v>
       </c>
       <c r="V9" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>28152.058805177359</v>
+        <v>0</v>
       </c>
       <c r="X9" s="10"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>331</v>
+        <v>963</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>317</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>332091.44320365973</v>
+        <v>964911.48638317292</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.7259296858796</v>
+        <v>1000.0535484582402</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72592968587954376</v>
+        <v>5.3548458240288754E-2</v>
       </c>
       <c r="I10" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.27407031412042</v>
+        <v>999.94645154175976</v>
       </c>
       <c r="J10" s="9">
         <v>0</v>
@@ -3420,11 +3420,11 @@
       <c r="M10" s="8"/>
       <c r="N10" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.97794494714693292</v>
+        <v>0.61957062522403039</v>
       </c>
       <c r="O10" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.02205505285303</v>
+        <v>999.38042937477599</v>
       </c>
       <c r="P10" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -3438,11 +3438,11 @@
       <c r="S10" s="8"/>
       <c r="T10" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>4.4525364155759251E-2</v>
+        <v>0.59715748271190405</v>
       </c>
       <c r="U10" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>999.95547463584421</v>
+        <v>999.40284251728815</v>
       </c>
       <c r="V10" s="9">
         <f t="shared" ca="1" si="14"/>
@@ -3457,32 +3457,32 @@
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>976</v>
+        <v>244</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>393</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>977248.41921281605</v>
+        <v>245070.94550935365</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.746236704804</v>
+        <v>1000.7121583977215</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.74623670480395832</v>
+        <v>0.71215839772150935</v>
       </c>
       <c r="I11" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.25376329519599</v>
+        <v>999.28784160227849</v>
       </c>
       <c r="J11" s="9">
         <v>0</v>
@@ -3495,69 +3495,69 @@
       <c r="M11" s="8"/>
       <c r="N11" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.63995654236144406</v>
+        <v>0.78876485725860102</v>
       </c>
       <c r="O11" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.36004345763854</v>
+        <v>72746.413824520496</v>
       </c>
       <c r="P11" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>71747.202589377761</v>
       </c>
       <c r="R11" s="9"/>
       <c r="S11" s="8"/>
       <c r="T11" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.40296516161836216</v>
+        <v>0.82133075508347397</v>
       </c>
       <c r="U11" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>999.59703483838166</v>
+        <v>58486.14068443657</v>
       </c>
       <c r="V11" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>57486.962015191653</v>
       </c>
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>395</v>
+        <v>848</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>389</v>
+        <v>196</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>396233.45438693423</v>
+        <v>849095.9450533014</v>
       </c>
       <c r="F12" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.4100142463599</v>
+        <v>1000.8879043054293</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41001424635983774</v>
+        <v>0.88790430542925036</v>
       </c>
       <c r="I12" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.58998575364012</v>
+        <v>999.11209569457071</v>
       </c>
       <c r="J12" s="9">
         <v>0</v>
@@ -3570,11 +3570,11 @@
       <c r="M12" s="8"/>
       <c r="N12" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.43589408838662846</v>
+        <v>0.70580958148511397</v>
       </c>
       <c r="O12" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.56410591161341</v>
+        <v>999.29419041851486</v>
       </c>
       <c r="P12" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -3588,11 +3588,11 @@
       <c r="S12" s="8"/>
       <c r="T12" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.76713398260063537</v>
+        <v>4.5375560760582356E-2</v>
       </c>
       <c r="U12" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>53725.058903267636</v>
+        <v>92565.547764475108</v>
       </c>
       <c r="V12" s="9">
         <f t="shared" ca="1" si="14"/>
@@ -3600,39 +3600,39 @@
       </c>
       <c r="W12" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>52725.826037250234</v>
+        <v>91565.593140035868</v>
       </c>
       <c r="X12" s="10"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>736</v>
+        <v>988</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>111</v>
+        <v>378</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>737269.56035143882</v>
+        <v>989721.37487918232</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.6346117667499</v>
+        <v>1000.2701369005244</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63461176674990427</v>
+        <v>0.27013690052447292</v>
       </c>
       <c r="I13" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.36538823325009</v>
+        <v>999.72986309947555</v>
       </c>
       <c r="J13" s="9">
         <v>0</v>
@@ -3645,11 +3645,11 @@
       <c r="M13" s="8"/>
       <c r="N13" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.78347056479046207</v>
+        <v>0.56214046967713993</v>
       </c>
       <c r="O13" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>37977.653906176092</v>
+        <v>75486.149651048298</v>
       </c>
       <c r="P13" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -3657,17 +3657,17 @@
       </c>
       <c r="Q13" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>36978.437376740883</v>
+        <v>74486.71179151797</v>
       </c>
       <c r="R13" s="9"/>
       <c r="S13" s="8"/>
       <c r="T13" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.56611217672128822</v>
+        <v>0.7600568071130045</v>
       </c>
       <c r="U13" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>74411.599526872742</v>
+        <v>9328.3370414925412</v>
       </c>
       <c r="V13" s="9">
         <f t="shared" ca="1" si="14"/>
@@ -3675,39 +3675,39 @@
       </c>
       <c r="W13" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>73412.165639049461</v>
+        <v>8329.0970982996532</v>
       </c>
       <c r="X13" s="10"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>630</v>
+        <v>396</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>631574.38881934318</v>
+        <v>397356.58709356334</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.0884120519186</v>
+        <v>1000.0997795099661</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>8.841205191860968E-2</v>
+        <v>9.9779509966122282E-2</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.91158794808143</v>
+        <v>999.90022049003392</v>
       </c>
       <c r="J14" s="9">
         <v>0</v>
@@ -3720,11 +3720,11 @@
       <c r="M14" s="8"/>
       <c r="N14" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.75731567537455458</v>
+        <v>6.4261948144898939E-2</v>
       </c>
       <c r="O14" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.24268432462543</v>
+        <v>999.93573805185508</v>
       </c>
       <c r="P14" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -3738,11 +3738,11 @@
       <c r="S14" s="8"/>
       <c r="T14" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.43864500852040189</v>
+        <v>0.46398157469258561</v>
       </c>
       <c r="U14" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>20905.148090366201</v>
+        <v>65501.418328423293</v>
       </c>
       <c r="V14" s="9">
         <f t="shared" ca="1" si="14"/>
@@ -3750,39 +3750,39 @@
       </c>
       <c r="W14" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>19905.586735374724</v>
+        <v>64501.882309997985</v>
       </c>
       <c r="X14" s="10"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>741</v>
+        <v>844</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>399</v>
+        <v>220</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>742715.9724290726</v>
+        <v>845662.49453395093</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.0338210417939</v>
+        <v>1000.2153089751472</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>3.3821041793865136E-2</v>
+        <v>0.21530897514717207</v>
       </c>
       <c r="I15" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.96617895820611</v>
+        <v>999.7846910248528</v>
       </c>
       <c r="J15" s="9">
         <v>0</v>
@@ -3795,11 +3795,11 @@
       <c r="M15" s="8"/>
       <c r="N15" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.43732598187690763</v>
+        <v>9.9163650787507329E-2</v>
       </c>
       <c r="O15" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>54254.72780314726</v>
+        <v>9351.4843703959923</v>
       </c>
       <c r="P15" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -3807,17 +3807,17 @@
       </c>
       <c r="Q15" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>53255.165129129135</v>
+        <v>8351.5835340467802</v>
       </c>
       <c r="R15" s="9"/>
       <c r="S15" s="8"/>
       <c r="T15" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.41145119248793327</v>
+        <v>9.3999243690994216E-2</v>
       </c>
       <c r="U15" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>70368.067750031943</v>
+        <v>75794.156691451819</v>
       </c>
       <c r="V15" s="9">
         <f t="shared" ca="1" si="14"/>
@@ -3825,39 +3825,39 @@
       </c>
       <c r="W15" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>69368.479201224429</v>
+        <v>74794.25069069551</v>
       </c>
       <c r="X15" s="10"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>962</v>
+        <v>780</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>418</v>
+        <v>147</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>963755.42069064733</v>
+        <v>781139.82960479462</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.2149628609288</v>
+        <v>1000.8217848462201</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21496286092886652</v>
+        <v>0.82178484622011649</v>
       </c>
       <c r="I16" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.78503713907116</v>
+        <v>999.17821515377989</v>
       </c>
       <c r="J16" s="9">
         <v>0</v>
@@ -3870,11 +3870,11 @@
       <c r="M16" s="8"/>
       <c r="N16" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.49741423874211266</v>
+        <v>4.7014246371081092E-2</v>
       </c>
       <c r="O16" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>27719.290355102585</v>
+        <v>58590.3520124036</v>
       </c>
       <c r="P16" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -3882,17 +3882,17 @@
       </c>
       <c r="Q16" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>26719.787769341328</v>
+        <v>57590.399026649975</v>
       </c>
       <c r="R16" s="9"/>
       <c r="S16" s="8"/>
       <c r="T16" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.50893363132621838</v>
+        <v>0.74222678095085548</v>
       </c>
       <c r="U16" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>39167.380715240797</v>
+        <v>98609.568903525651</v>
       </c>
       <c r="V16" s="9">
         <f t="shared" ca="1" si="14"/>
@@ -3900,39 +3900,39 @@
       </c>
       <c r="W16" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>38167.889648872122</v>
+        <v>97610.311130306596</v>
       </c>
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
-        <v>684514.3355706177</v>
+        <v>651551.22882842203</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.2473085474813</v>
+        <v>1000.1521897867149</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24730854748137654</v>
+        <v>0.15218978671488048</v>
       </c>
       <c r="I17" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.75269145251866</v>
+        <v>999.84781021328513</v>
       </c>
       <c r="J17" s="9">
         <v>0</v>
@@ -3945,11 +3945,11 @@
       <c r="M17" s="8"/>
       <c r="N17" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.6169433992402712</v>
+        <v>0.17708042973174554</v>
       </c>
       <c r="O17" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.38305660075969</v>
+        <v>999.82291957026825</v>
       </c>
       <c r="P17" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -3963,51 +3963,51 @@
       <c r="S17" s="8"/>
       <c r="T17" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.95163588781908826</v>
+        <v>0.86423153887101334</v>
       </c>
       <c r="U17" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>999.04836411218093</v>
+        <v>59614.353195869924</v>
       </c>
       <c r="V17" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>58615.217427408796</v>
       </c>
       <c r="X17" s="10"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>970</v>
+        <v>241</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
-        <v>971608.87773817219</v>
+        <v>242190.11849261646</v>
       </c>
       <c r="F18" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.3726751928048</v>
+        <v>1000.2120062807647</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37267519280476913</v>
+        <v>0.21200628076471917</v>
       </c>
       <c r="I18" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.62732480719524</v>
+        <v>999.78799371923526</v>
       </c>
       <c r="J18" s="9">
         <v>0</v>
@@ -4020,11 +4020,11 @@
       <c r="M18" s="8"/>
       <c r="N18" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.81653076496404764</v>
+        <v>3.7878779133104334E-2</v>
       </c>
       <c r="O18" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.183469235036</v>
+        <v>999.96212122086695</v>
       </c>
       <c r="P18" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -4038,51 +4038,51 @@
       <c r="S18" s="8"/>
       <c r="T18" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.4668637383623403</v>
+        <v>0.82525333476577545</v>
       </c>
       <c r="U18" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>60856.443307875052</v>
+        <v>999.17474666523424</v>
       </c>
       <c r="V18" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>59856.910171613417</v>
+        <v>0</v>
       </c>
       <c r="X18" s="10"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>823</v>
+        <v>82</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>824129.68644068681</v>
+        <v>83040.394077369288</v>
       </c>
       <c r="F19" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.843447152449</v>
+        <v>1000.5136533658111</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84344715244900514</v>
+        <v>0.5136533658111212</v>
       </c>
       <c r="I19" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.15655284755098</v>
+        <v>999.48634663418886</v>
       </c>
       <c r="J19" s="9">
         <v>0</v>
@@ -4095,69 +4095,69 @@
       <c r="M19" s="8"/>
       <c r="N19" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.29008513569729377</v>
+        <v>0.63479807469407579</v>
       </c>
       <c r="O19" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.70991486430273</v>
+        <v>55557.07432968582</v>
       </c>
       <c r="P19" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>54557.709127760514</v>
       </c>
       <c r="R19" s="9"/>
       <c r="S19" s="8"/>
       <c r="T19" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.25564868901952131</v>
+        <v>1.8251815311104758E-2</v>
       </c>
       <c r="U19" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>43507.922487400509</v>
+        <v>999.98174818468885</v>
       </c>
       <c r="V19" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>42508.178136089526</v>
+        <v>0</v>
       </c>
       <c r="X19" s="10"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>490</v>
+        <v>701</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>491476.21790643391</v>
+        <v>702009.11608716648</v>
       </c>
       <c r="F20" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.0281842404214</v>
+        <v>1000.9884055897621</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>2.8184240421359696E-2</v>
+        <v>0.98840558976210224</v>
       </c>
       <c r="I20" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.97181575957859</v>
+        <v>999.01159441023788</v>
       </c>
       <c r="J20" s="9">
         <v>0</v>
@@ -4170,11 +4170,11 @@
       <c r="M20" s="8"/>
       <c r="N20" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.12085501563506595</v>
+        <v>0.51751324875435001</v>
       </c>
       <c r="O20" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.87914498436498</v>
+        <v>999.48248675124569</v>
       </c>
       <c r="P20" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -4188,51 +4188,51 @@
       <c r="S20" s="8"/>
       <c r="T20" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.95307446306832233</v>
+        <v>0.77750678628960868</v>
       </c>
       <c r="U20" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>49057.152173061382</v>
+        <v>999.22249321371044</v>
       </c>
       <c r="V20" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>48058.105247524451</v>
+        <v>0</v>
       </c>
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>861191.20649098395</v>
+        <v>865573.99843212578</v>
       </c>
       <c r="F21" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.7785721874459</v>
+        <v>1000.3360388967257</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77857218744590972</v>
+        <v>0.33603889672563114</v>
       </c>
       <c r="I21" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.22142781255411</v>
+        <v>999.66396110327435</v>
       </c>
       <c r="J21" s="9">
         <v>0</v>
@@ -4245,11 +4245,11 @@
       <c r="M21" s="8"/>
       <c r="N21" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.3103444669744555</v>
+        <v>0.98718457308382423</v>
       </c>
       <c r="O21" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>20643.219588381726</v>
+        <v>85544.626385926342</v>
       </c>
       <c r="P21" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -4257,57 +4257,57 @@
       </c>
       <c r="Q21" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>19643.529932848702</v>
+        <v>84545.613570499423</v>
       </c>
       <c r="R21" s="9"/>
       <c r="S21" s="8"/>
       <c r="T21" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.66645367298860314</v>
+        <v>0.14518902165788361</v>
       </c>
       <c r="U21" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>57926.881914521029</v>
+        <v>999.85481097834213</v>
       </c>
       <c r="V21" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>56927.548368194017</v>
+        <v>0</v>
       </c>
       <c r="X21" s="10"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>781</v>
+        <v>78</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>527</v>
+        <v>220</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>782371.05328775698</v>
+        <v>79018.177156123988</v>
       </c>
       <c r="F22" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.5255727080039</v>
+        <v>1000.7769200503378</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52557270800392386</v>
+        <v>0.77692005033779876</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.47442729199611</v>
+        <v>999.22307994966218</v>
       </c>
       <c r="J22" s="9">
         <v>0</v>
@@ -4320,11 +4320,11 @@
       <c r="M22" s="8"/>
       <c r="N22" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.4963234003229835</v>
+        <v>0.72506569943977062</v>
       </c>
       <c r="O22" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.50367659967696</v>
+        <v>999.27493430056018</v>
       </c>
       <c r="P22" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -4338,11 +4338,11 @@
       <c r="S22" s="8"/>
       <c r="T22" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.60825763297675373</v>
+        <v>0.3329267735108139</v>
       </c>
       <c r="U22" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>13427.85639197584</v>
+        <v>91488.20230612802</v>
       </c>
       <c r="V22" s="9">
         <f t="shared" ca="1" si="14"/>
@@ -4350,39 +4350,39 @@
       </c>
       <c r="W22" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>12428.464649608817</v>
+        <v>90488.53523290153</v>
       </c>
       <c r="X22" s="10"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>570</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>51001.486431973499</v>
+        <v>571303.74636872089</v>
       </c>
       <c r="F23" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.9900728168674</v>
+        <v>1000.4679325681532</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99007281686737969</v>
+        <v>0.46793256815313589</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.00992718313262</v>
+        <v>999.53206743184683</v>
       </c>
       <c r="J23" s="9">
         <v>0</v>
@@ -4395,11 +4395,11 @@
       <c r="M23" s="8"/>
       <c r="N23" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.17580857616379941</v>
+        <v>0.90078061216189453</v>
       </c>
       <c r="O23" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.82419142383617</v>
+        <v>999.09921938783816</v>
       </c>
       <c r="P23" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -4413,51 +4413,51 @@
       <c r="S23" s="8"/>
       <c r="T23" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.14791015855192358</v>
+        <v>0.22723408449436788</v>
       </c>
       <c r="U23" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>94193.016804547296</v>
+        <v>999.7727659155056</v>
       </c>
       <c r="V23" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>93193.164714705854</v>
+        <v>0</v>
       </c>
       <c r="X23" s="10"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>530</v>
+        <v>251</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>531163.05309428147</v>
+        <v>252160.79065662101</v>
       </c>
       <c r="F24" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.6936614474831</v>
+        <v>1000.3608373735159</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69366144748309666</v>
+        <v>0.36083737351586331</v>
       </c>
       <c r="I24" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.30633855251688</v>
+        <v>999.63916262648411</v>
       </c>
       <c r="J24" s="9">
         <v>0</v>
@@ -4470,69 +4470,69 @@
       <c r="M24" s="8"/>
       <c r="N24" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.89114658218760023</v>
+        <v>6.8341725645939766E-2</v>
       </c>
       <c r="O24" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>52880.427694902763</v>
+        <v>999.93165827435405</v>
       </c>
       <c r="P24" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>51881.31884148495</v>
+        <v>0</v>
       </c>
       <c r="R24" s="9"/>
       <c r="S24" s="8"/>
       <c r="T24" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.34602831166691939</v>
+        <v>0.9855505970121754</v>
       </c>
       <c r="U24" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>62659.503923654163</v>
+        <v>999.01444940298779</v>
       </c>
       <c r="V24" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>61659.849951965829</v>
+        <v>0</v>
       </c>
       <c r="X24" s="10"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>519</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>312115.4610095424</v>
+        <v>80040.097238457092</v>
       </c>
       <c r="F25" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.6307709369599</v>
+        <v>1000.4987533531141</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63077093695998754</v>
+        <v>0.49875335311410851</v>
       </c>
       <c r="I25" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.36922906304005</v>
+        <v>999.50124664688587</v>
       </c>
       <c r="J25" s="9">
         <v>0</v>
@@ -4545,69 +4545,69 @@
       <c r="M25" s="8"/>
       <c r="N25" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.7136373398923781</v>
+        <v>0.82899255372749314</v>
       </c>
       <c r="O25" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.28636266010767</v>
+        <v>63774.249485749635</v>
       </c>
       <c r="P25" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>62775.07847830336</v>
       </c>
       <c r="R25" s="9"/>
       <c r="S25" s="8"/>
       <c r="T25" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.15937370839186449</v>
+        <v>0.3791272433013616</v>
       </c>
       <c r="U25" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>56449.903191352707</v>
+        <v>999.62087275669865</v>
       </c>
       <c r="V25" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>55450.062565061096</v>
+        <v>0</v>
       </c>
       <c r="X25" s="10"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>308</v>
+        <v>927</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>309270.2445865366</v>
+        <v>928031.85949299776</v>
       </c>
       <c r="F26" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.1229818028123</v>
+        <v>1000.9666744136093</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12298180281235049</v>
+        <v>0.96667441360931039</v>
       </c>
       <c r="I26" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.87701819718768</v>
+        <v>999.03332558639067</v>
       </c>
       <c r="J26" s="9">
         <v>0</v>
@@ -4620,11 +4620,11 @@
       <c r="M26" s="8"/>
       <c r="N26" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.49408565324109355</v>
+        <v>0.13364988783227871</v>
       </c>
       <c r="O26" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>63838.171349502656</v>
+        <v>24902.438211147106</v>
       </c>
       <c r="P26" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -4632,57 +4632,57 @@
       </c>
       <c r="Q26" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>62838.665435155897</v>
+        <v>23902.57186103494</v>
       </c>
       <c r="R26" s="9"/>
       <c r="S26" s="8"/>
       <c r="T26" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.71385721526407486</v>
+        <v>0.77567478497702258</v>
       </c>
       <c r="U26" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>45926.501818452627</v>
+        <v>999.22432521502299</v>
       </c>
       <c r="V26" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>44927.215675667889</v>
+        <v>0</v>
       </c>
       <c r="X26" s="10"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>464</v>
+        <v>636</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>520</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>465242.05465905019</v>
+        <v>637309.92812439706</v>
       </c>
       <c r="F27" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.4793635873647</v>
+        <v>1000.5134990166974</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47936358736471729</v>
+        <v>0.51349901669739928</v>
       </c>
       <c r="I27" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.52063641263533</v>
+        <v>999.48650098330256</v>
       </c>
       <c r="J27" s="9">
         <v>0</v>
@@ -4695,11 +4695,11 @@
       <c r="M27" s="8"/>
       <c r="N27" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>9.8608491063157944E-3</v>
+        <v>0.54969965264407994</v>
       </c>
       <c r="O27" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>15002.079750134131</v>
+        <v>6008.5381091058725</v>
       </c>
       <c r="P27" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -4707,57 +4707,57 @@
       </c>
       <c r="Q27" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>14002.089610983237</v>
+        <v>5009.087808758517</v>
       </c>
       <c r="R27" s="9"/>
       <c r="S27" s="8"/>
       <c r="T27" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.13742832264777782</v>
+        <v>0.13730889338332186</v>
       </c>
       <c r="U27" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>999.86257167735221</v>
+        <v>27551.676125985708</v>
       </c>
       <c r="V27" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>26551.813434879092</v>
       </c>
       <c r="X27" s="10"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>255</v>
+        <v>509</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>255097.52295439062</v>
+        <v>68004.798962485933</v>
       </c>
       <c r="F28" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.6184863462821</v>
+        <v>1000.9424399623344</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61848634628207766</v>
+        <v>0.94243996233446081</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.38151365371789</v>
+        <v>999.05756003766555</v>
       </c>
       <c r="J28" s="9">
         <v>0</v>
@@ -4770,29 +4770,29 @@
       <c r="M28" s="8"/>
       <c r="N28" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.87359201852639334</v>
+        <v>0.79970017065203636</v>
       </c>
       <c r="O28" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>999.12640798147356</v>
+        <v>8903.7091146024959</v>
       </c>
       <c r="P28" s="9">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>7904.5088147731476</v>
       </c>
       <c r="R28" s="9"/>
       <c r="S28" s="8"/>
       <c r="T28" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.73604355355608486</v>
+        <v>0.86113460391716889</v>
       </c>
       <c r="U28" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>77233.018867368068</v>
+        <v>88807.133314119128</v>
       </c>
       <c r="V28" s="9">
         <f t="shared" ca="1" si="14"/>
@@ -4800,39 +4800,39 @@
       </c>
       <c r="W28" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>76233.75491092162</v>
+        <v>87807.994448723039</v>
       </c>
       <c r="X28" s="10"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>476</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>477295.38385358115</v>
+        <v>38002.020784577784</v>
       </c>
       <c r="F29" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.3802445187766</v>
+        <v>1000.9716448728393</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38024451877662913</v>
+        <v>0.97164487283928858</v>
       </c>
       <c r="I29" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.61975548122336</v>
+        <v>999.02835512716069</v>
       </c>
       <c r="J29" s="9">
         <v>0</v>
@@ -4845,11 +4845,11 @@
       <c r="M29" s="8"/>
       <c r="N29" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.74524654118735334</v>
+        <v>0.66171134510447305</v>
       </c>
       <c r="O29" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>4359.966288427654</v>
+        <v>32655.413461412067</v>
       </c>
       <c r="P29" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -4857,17 +4857,17 @@
       </c>
       <c r="Q29" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>3360.7115349688411</v>
+        <v>31656.07517275717</v>
       </c>
       <c r="R29" s="9"/>
       <c r="S29" s="8"/>
       <c r="T29" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.8568029950997097</v>
+        <v>0.53864479242168251</v>
       </c>
       <c r="U29" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>999.14319700490034</v>
+        <v>999.46135520757832</v>
       </c>
       <c r="V29" s="9">
         <f t="shared" ca="1" si="14"/>
@@ -4882,32 +4882,32 @@
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>877</v>
+        <v>184</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>522</v>
+        <v>172</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>878323.17040468543</v>
+        <v>185150.16477637304</v>
       </c>
       <c r="F30" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.6322255654276</v>
+        <v>1000.1848919323877</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63222556542762953</v>
+        <v>0.18489193238771573</v>
       </c>
       <c r="I30" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.36777443457242</v>
+        <v>999.8151080676123</v>
       </c>
       <c r="J30" s="9">
         <v>0</v>
@@ -4920,11 +4920,11 @@
       <c r="M30" s="8"/>
       <c r="N30" s="9">
         <f t="shared" ca="1" si="8"/>
-        <v>0.30477818804402601</v>
+        <v>0.3007073979937388</v>
       </c>
       <c r="O30" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>62956.003150905242</v>
+        <v>39112.447988548476</v>
       </c>
       <c r="P30" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -4932,57 +4932,57 @@
       </c>
       <c r="Q30" s="9">
         <f t="shared" ca="1" si="11"/>
-        <v>61956.307929093287</v>
+        <v>38112.748695946473</v>
       </c>
       <c r="R30" s="9"/>
       <c r="S30" s="8"/>
       <c r="T30" s="9">
         <f t="shared" ca="1" si="12"/>
-        <v>0.20091603294068028</v>
+        <v>0.93792652641834107</v>
       </c>
       <c r="U30" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>999.79908396705935</v>
+        <v>1741.7647079415437</v>
       </c>
       <c r="V30" s="9">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="9">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>742.70263446796218</v>
       </c>
       <c r="X30" s="10"/>
     </row>
     <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>995</v>
+        <v>446</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="2"/>
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>996471.52533527825</v>
+        <v>447078.69023684406</v>
       </c>
       <c r="F31" s="17">
         <f t="shared" ca="1" si="4"/>
-        <v>1000.5266344715511</v>
+        <v>1000.8254151981032</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5266344715511484</v>
+        <v>0.82541519810323649</v>
       </c>
       <c r="I31" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>999.47336552844888</v>
+        <v>999.1745848018968</v>
       </c>
       <c r="J31" s="9">
         <v>0</v>
@@ -4995,11 +4995,11 @@
       <c r="M31" s="11"/>
       <c r="N31" s="12">
         <f t="shared" ca="1" si="8"/>
-        <v>0.96461513920953079</v>
+        <v>0.20522434478751683</v>
       </c>
       <c r="O31" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>41599.586346282158</v>
+        <v>95799.208471778737</v>
       </c>
       <c r="P31" s="12">
         <f t="shared" ca="1" si="10"/>
@@ -5007,17 +5007,17 @@
       </c>
       <c r="Q31" s="12">
         <f t="shared" ca="1" si="11"/>
-        <v>40600.550961421366</v>
+        <v>94799.41369612352</v>
       </c>
       <c r="R31" s="12"/>
       <c r="S31" s="11"/>
       <c r="T31" s="12">
         <f t="shared" ca="1" si="12"/>
-        <v>0.80428130670285292</v>
+        <v>0.42194935777599074</v>
       </c>
       <c r="U31" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>999.19571869329718</v>
+        <v>999.57805064222396</v>
       </c>
       <c r="V31" s="12">
         <f t="shared" ca="1" si="14"/>
@@ -5065,541 +5065,541 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">+'Prediccion Multiple'!A2</f>
-        <v>663</v>
+        <v>348</v>
       </c>
       <c r="B2">
         <f ca="1">+'Prediccion Multiple'!B2</f>
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <f ca="1">+'Prediccion Multiple'!C2</f>
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D2">
         <f ca="1">+'Prediccion Multiple'!D2</f>
-        <v>746244.44370201952</v>
+        <v>18853038.817541163</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f ca="1">+'Prediccion Multiple'!A3</f>
-        <v>577</v>
+        <v>788</v>
       </c>
       <c r="B3">
         <f ca="1">+'Prediccion Multiple'!B3</f>
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <f ca="1">+'Prediccion Multiple'!C3</f>
-        <v>218</v>
+        <v>471</v>
       </c>
       <c r="D3">
         <f ca="1">+'Prediccion Multiple'!D3</f>
-        <v>578317.99487495911</v>
+        <v>789210.28935639316</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f ca="1">+'Prediccion Multiple'!A4</f>
-        <v>701</v>
+        <v>795</v>
       </c>
       <c r="B4">
         <f ca="1">+'Prediccion Multiple'!B4</f>
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <f ca="1">+'Prediccion Multiple'!C4</f>
-        <v>42</v>
+        <v>211</v>
       </c>
       <c r="D4">
         <f ca="1">+'Prediccion Multiple'!D4</f>
-        <v>702396.27143501502</v>
+        <v>796441.48421254696</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f ca="1">+'Prediccion Multiple'!A5</f>
-        <v>816</v>
+        <v>454</v>
       </c>
       <c r="B5">
         <f ca="1">+'Prediccion Multiple'!B5</f>
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <f ca="1">+'Prediccion Multiple'!C5</f>
-        <v>466</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <f ca="1">+'Prediccion Multiple'!D5</f>
-        <v>817566.88814507145</v>
+        <v>455010.78811339842</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f ca="1">+'Prediccion Multiple'!A6</f>
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="B6">
         <f ca="1">+'Prediccion Multiple'!B6</f>
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C6">
         <f ca="1">+'Prediccion Multiple'!C6</f>
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <f ca="1">+'Prediccion Multiple'!D6</f>
-        <v>12007.084470360352</v>
+        <v>379176.71540575218</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f ca="1">+'Prediccion Multiple'!A7</f>
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="B7">
         <f ca="1">+'Prediccion Multiple'!B7</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <f ca="1">+'Prediccion Multiple'!C7</f>
-        <v>376</v>
+        <v>472</v>
       </c>
       <c r="D7">
         <f ca="1">+'Prediccion Multiple'!D7</f>
-        <v>910466.95948142873</v>
+        <v>888129.9350423963</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f ca="1">+'Prediccion Multiple'!A8</f>
-        <v>304</v>
+        <v>385</v>
       </c>
       <c r="B8">
         <f ca="1">+'Prediccion Multiple'!B8</f>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <f ca="1">+'Prediccion Multiple'!C8</f>
-        <v>288</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <f ca="1">+'Prediccion Multiple'!D8</f>
-        <v>305153.87107901828</v>
+        <v>386255.98384001391</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f ca="1">+'Prediccion Multiple'!A9</f>
-        <v>369</v>
+        <v>597</v>
       </c>
       <c r="B9">
         <f ca="1">+'Prediccion Multiple'!B9</f>
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <f ca="1">+'Prediccion Multiple'!C9</f>
-        <v>463</v>
+        <v>436</v>
       </c>
       <c r="D9">
         <f ca="1">+'Prediccion Multiple'!D9</f>
-        <v>370110.97856731509</v>
+        <v>598139.36781594204</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f ca="1">+'Prediccion Multiple'!A10</f>
-        <v>331</v>
+        <v>963</v>
       </c>
       <c r="B10">
         <f ca="1">+'Prediccion Multiple'!B10</f>
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <f ca="1">+'Prediccion Multiple'!C10</f>
-        <v>88</v>
+        <v>317</v>
       </c>
       <c r="D10">
         <f ca="1">+'Prediccion Multiple'!D10</f>
-        <v>332091.44320365973</v>
+        <v>964911.48638317292</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f ca="1">+'Prediccion Multiple'!A11</f>
-        <v>976</v>
+        <v>244</v>
       </c>
       <c r="B11">
         <f ca="1">+'Prediccion Multiple'!B11</f>
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <f ca="1">+'Prediccion Multiple'!C11</f>
-        <v>393</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <f ca="1">+'Prediccion Multiple'!D11</f>
-        <v>977248.41921281605</v>
+        <v>245070.94550935365</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f ca="1">+'Prediccion Multiple'!A12</f>
-        <v>395</v>
+        <v>848</v>
       </c>
       <c r="B12">
         <f ca="1">+'Prediccion Multiple'!B12</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <f ca="1">+'Prediccion Multiple'!C12</f>
-        <v>389</v>
+        <v>196</v>
       </c>
       <c r="D12">
         <f ca="1">+'Prediccion Multiple'!D12</f>
-        <v>396233.45438693423</v>
+        <v>849095.9450533014</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f ca="1">+'Prediccion Multiple'!A13</f>
-        <v>736</v>
+        <v>988</v>
       </c>
       <c r="B13">
         <f ca="1">+'Prediccion Multiple'!B13</f>
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <f ca="1">+'Prediccion Multiple'!C13</f>
-        <v>111</v>
+        <v>378</v>
       </c>
       <c r="D13">
         <f ca="1">+'Prediccion Multiple'!D13</f>
-        <v>737269.56035143882</v>
+        <v>989721.37487918232</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f ca="1">+'Prediccion Multiple'!A14</f>
-        <v>630</v>
+        <v>396</v>
       </c>
       <c r="B14">
         <f ca="1">+'Prediccion Multiple'!B14</f>
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <f ca="1">+'Prediccion Multiple'!C14</f>
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="D14">
         <f ca="1">+'Prediccion Multiple'!D14</f>
-        <v>631574.38881934318</v>
+        <v>397356.58709356334</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f ca="1">+'Prediccion Multiple'!A15</f>
-        <v>741</v>
+        <v>844</v>
       </c>
       <c r="B15">
         <f ca="1">+'Prediccion Multiple'!B15</f>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C15">
         <f ca="1">+'Prediccion Multiple'!C15</f>
-        <v>399</v>
+        <v>220</v>
       </c>
       <c r="D15">
         <f ca="1">+'Prediccion Multiple'!D15</f>
-        <v>742715.9724290726</v>
+        <v>845662.49453395093</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f ca="1">+'Prediccion Multiple'!A16</f>
-        <v>962</v>
+        <v>780</v>
       </c>
       <c r="B16">
         <f ca="1">+'Prediccion Multiple'!B16</f>
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="C16">
         <f ca="1">+'Prediccion Multiple'!C16</f>
-        <v>418</v>
+        <v>147</v>
       </c>
       <c r="D16">
         <f ca="1">+'Prediccion Multiple'!D16</f>
-        <v>963755.42069064733</v>
+        <v>781139.82960479462</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <f ca="1">+'Prediccion Multiple'!A17</f>
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="B17">
         <f ca="1">+'Prediccion Multiple'!B17</f>
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <f ca="1">+'Prediccion Multiple'!C17</f>
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="D17">
         <f ca="1">+'Prediccion Multiple'!D17</f>
-        <v>684514.3355706177</v>
+        <v>651551.22882842203</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f ca="1">+'Prediccion Multiple'!A18</f>
-        <v>970</v>
+        <v>241</v>
       </c>
       <c r="B18">
         <f ca="1">+'Prediccion Multiple'!B18</f>
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <f ca="1">+'Prediccion Multiple'!C18</f>
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <f ca="1">+'Prediccion Multiple'!D18</f>
-        <v>971608.87773817219</v>
+        <v>242190.11849261646</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f ca="1">+'Prediccion Multiple'!A19</f>
-        <v>823</v>
+        <v>82</v>
       </c>
       <c r="B19">
         <f ca="1">+'Prediccion Multiple'!B19</f>
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <f ca="1">+'Prediccion Multiple'!C19</f>
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="D19">
         <f ca="1">+'Prediccion Multiple'!D19</f>
-        <v>824129.68644068681</v>
+        <v>83040.394077369288</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <f ca="1">+'Prediccion Multiple'!A20</f>
-        <v>490</v>
+        <v>701</v>
       </c>
       <c r="B20">
         <f ca="1">+'Prediccion Multiple'!B20</f>
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="C20">
         <f ca="1">+'Prediccion Multiple'!C20</f>
-        <v>223</v>
+        <v>83</v>
       </c>
       <c r="D20">
         <f ca="1">+'Prediccion Multiple'!D20</f>
-        <v>491476.21790643391</v>
+        <v>702009.11608716648</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f ca="1">+'Prediccion Multiple'!A21</f>
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B21">
         <f ca="1">+'Prediccion Multiple'!B21</f>
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <f ca="1">+'Prediccion Multiple'!C21</f>
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D21">
         <f ca="1">+'Prediccion Multiple'!D21</f>
-        <v>861191.20649098395</v>
+        <v>865573.99843212578</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <f ca="1">+'Prediccion Multiple'!A22</f>
-        <v>781</v>
+        <v>78</v>
       </c>
       <c r="B22">
         <f ca="1">+'Prediccion Multiple'!B22</f>
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <f ca="1">+'Prediccion Multiple'!C22</f>
-        <v>527</v>
+        <v>220</v>
       </c>
       <c r="D22">
         <f ca="1">+'Prediccion Multiple'!D22</f>
-        <v>782371.05328775698</v>
+        <v>79018.177156123988</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <f ca="1">+'Prediccion Multiple'!A23</f>
-        <v>50</v>
+        <v>570</v>
       </c>
       <c r="B23">
         <f ca="1">+'Prediccion Multiple'!B23</f>
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C23">
         <f ca="1">+'Prediccion Multiple'!C23</f>
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="D23">
         <f ca="1">+'Prediccion Multiple'!D23</f>
-        <v>51001.486431973499</v>
+        <v>571303.74636872089</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <f ca="1">+'Prediccion Multiple'!A24</f>
-        <v>530</v>
+        <v>251</v>
       </c>
       <c r="B24">
         <f ca="1">+'Prediccion Multiple'!B24</f>
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <f ca="1">+'Prediccion Multiple'!C24</f>
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="D24">
         <f ca="1">+'Prediccion Multiple'!D24</f>
-        <v>531163.05309428147</v>
+        <v>252160.79065662101</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <f ca="1">+'Prediccion Multiple'!A25</f>
-        <v>311</v>
+        <v>79</v>
       </c>
       <c r="B25">
         <f ca="1">+'Prediccion Multiple'!B25</f>
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <f ca="1">+'Prediccion Multiple'!C25</f>
-        <v>36</v>
+        <v>519</v>
       </c>
       <c r="D25">
         <f ca="1">+'Prediccion Multiple'!D25</f>
-        <v>312115.4610095424</v>
+        <v>80040.097238457092</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <f ca="1">+'Prediccion Multiple'!A26</f>
-        <v>308</v>
+        <v>927</v>
       </c>
       <c r="B26">
         <f ca="1">+'Prediccion Multiple'!B26</f>
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <f ca="1">+'Prediccion Multiple'!C26</f>
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="D26">
         <f ca="1">+'Prediccion Multiple'!D26</f>
-        <v>309270.2445865366</v>
+        <v>928031.85949299776</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <f ca="1">+'Prediccion Multiple'!A27</f>
-        <v>464</v>
+        <v>636</v>
       </c>
       <c r="B27">
         <f ca="1">+'Prediccion Multiple'!B27</f>
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <f ca="1">+'Prediccion Multiple'!C27</f>
-        <v>2</v>
+        <v>520</v>
       </c>
       <c r="D27">
         <f ca="1">+'Prediccion Multiple'!D27</f>
-        <v>465242.05465905019</v>
+        <v>637309.92812439706</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <f ca="1">+'Prediccion Multiple'!A28</f>
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <f ca="1">+'Prediccion Multiple'!B28</f>
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <f ca="1">+'Prediccion Multiple'!C28</f>
-        <v>255</v>
+        <v>509</v>
       </c>
       <c r="D28">
         <f ca="1">+'Prediccion Multiple'!D28</f>
-        <v>255097.52295439062</v>
+        <v>68004.798962485933</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <f ca="1">+'Prediccion Multiple'!A29</f>
-        <v>476</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <f ca="1">+'Prediccion Multiple'!B29</f>
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <f ca="1">+'Prediccion Multiple'!C29</f>
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="D29">
         <f ca="1">+'Prediccion Multiple'!D29</f>
-        <v>477295.38385358115</v>
+        <v>38002.020784577784</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <f ca="1">+'Prediccion Multiple'!A30</f>
-        <v>877</v>
+        <v>184</v>
       </c>
       <c r="B30">
         <f ca="1">+'Prediccion Multiple'!B30</f>
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C30">
         <f ca="1">+'Prediccion Multiple'!C30</f>
-        <v>522</v>
+        <v>172</v>
       </c>
       <c r="D30">
         <f ca="1">+'Prediccion Multiple'!D30</f>
-        <v>878323.17040468543</v>
+        <v>185150.16477637304</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <f ca="1">+'Prediccion Multiple'!A31</f>
-        <v>995</v>
+        <v>446</v>
       </c>
       <c r="B31">
         <f ca="1">+'Prediccion Multiple'!B31</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <f ca="1">+'Prediccion Multiple'!C31</f>
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D31">
         <f ca="1">+'Prediccion Multiple'!D31</f>
-        <v>996471.52533527825</v>
+        <v>447078.69023684406</v>
       </c>
     </row>
   </sheetData>
